--- a/app/templates/report/sepa.xlsx
+++ b/app/templates/report/sepa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A69C271-8F65-4CFE-9EE1-7750D0CBE220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90078DF9-3291-46A0-B288-48EE6C6E989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>NOMBRE DEL DEUDOR</t>
   </si>
@@ -70,9 +70,6 @@
     <t>SUFIJO</t>
   </si>
   <si>
-    <t>NOMBRE ACREEDRO</t>
-  </si>
-  <si>
     <t>FECHA COBRO</t>
   </si>
   <si>
@@ -92,6 +89,18 @@
   </si>
   <si>
     <t>TIPO DE ADEUDO</t>
+  </si>
+  <si>
+    <t>NOMBRE ACREEDOR</t>
+  </si>
+  <si>
+    <t>DOMICILIO</t>
+  </si>
+  <si>
+    <t>LOCALIDAD</t>
+  </si>
+  <si>
+    <t>PAIS</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -189,22 +198,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -220,15 +220,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -647,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,13 +669,15 @@
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.42578125" style="1"/>
+    <col min="13" max="14" width="35.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -675,37 +685,46 @@
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="str">
         <f>"A88445762"</f>
         <v>A88445762</v>
@@ -732,12 +751,13 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:M2">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="I2:O2">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>LEN(#REF!)=12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -755,7 +775,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
     <col min="3" max="6" width="18.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
@@ -791,7 +811,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -802,9 +822,14 @@
       <c r="H2" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H2">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A2 C2:H2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>LEN($C2)=12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>LEN(#REF!)=12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -821,7 +846,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
     <col min="3" max="6" width="18.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
@@ -857,7 +882,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -868,9 +893,14 @@
       <c r="H2" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H2">
+  <conditionalFormatting sqref="A2 C2:H2">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>LEN($C2)=12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>LEN($C2)=12</formula>
+      <formula>LEN(#REF!)=12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/templates/report/sepa.xlsx
+++ b/app/templates/report/sepa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90078DF9-3291-46A0-B288-48EE6C6E989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32370253-8BE5-47C7-A412-1071FB9D60AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vandor" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>NOMBRE DEL DEUDOR</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>PAIS</t>
+  </si>
+  <si>
+    <t>MARKETPLACE</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -655,29 +678,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="14" width="35.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="35.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="14.42578125" style="1"/>
+    <col min="16" max="16" width="47.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -723,8 +747,11 @@
       <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="str">
         <f>"A88445762"</f>
         <v>A88445762</v>
@@ -754,10 +781,11 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:O2">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="I2:P2">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>LEN(#REF!)=12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -768,22 +796,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="39.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="18.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -808,8 +836,11 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2"/>
@@ -820,14 +851,20 @@
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2 C2:H2">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>LEN($C2)=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>LEN(#REF!)=12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>LEN(#REF!)=12</formula>
     </cfRule>
@@ -839,22 +876,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="39.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="18.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -879,8 +916,11 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2"/>
@@ -891,14 +931,20 @@
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2 C2:H2">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>LEN($C2)=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>LEN(#REF!)=12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN(#REF!)=12</formula>
     </cfRule>
